--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onkar\git\WebAutomation\WebAutomation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B1662A-1E06-4109-B547-6CA4442C3772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BD26A-5B01-476E-998D-C3F5149F431E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -34,16 +34,33 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Onkar</t>
+  </si>
+  <si>
+    <t>Onkar@123</t>
+  </si>
+  <si>
+    <t>Admin123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -351,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,7 +399,26 @@
         <v>123</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{0F3D63E4-5BED-4E48-8315-29DD9EE115C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>